--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1744796.842252</v>
+        <v>-1747373.163733242</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>147.6364325960772</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>302.1209133873602</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>73.72789960985351</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>113.671303186411</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>18.88595192024711</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>69.49139589553474</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>158.8661859444882</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>262.9425229495563</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.91752934229381</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>68.75775489363815</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.21052528194938</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>85.75080106344764</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.44930784064442</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998702</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.15319674220952</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>144.108843301494</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>27.31547498186472</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>109.1623230749906</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261736</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352493</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317882</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3481,7 +3481,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
         <v>262.2383508445512</v>
@@ -3490,7 +3490,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1381.278680221566</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.278680221566</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="D2" t="n">
-        <v>1381.278680221566</v>
+        <v>1122.251160158767</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1122.251160158767</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>711.2652553691598</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136264</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792693</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522579</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261499</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285688</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556936</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275809</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614558</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609102</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686061</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064737</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080117</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986291</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068411</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695164</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.38058137302</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507435</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275693</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547491</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341958</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577004</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596504</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>846.4143799496456</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T4" t="n">
-        <v>624.6477645191717</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U4" t="n">
-        <v>624.6477645191717</v>
+        <v>350.2677975281823</v>
       </c>
       <c r="V4" t="n">
-        <v>624.6477645191717</v>
+        <v>350.2677975281823</v>
       </c>
       <c r="W4" t="n">
-        <v>624.6477645191717</v>
+        <v>350.2677975281823</v>
       </c>
       <c r="X4" t="n">
-        <v>624.6477645191717</v>
+        <v>350.2677975281823</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,22 +4565,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2685.613599606915</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.8449443368</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1959.379186075721</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
         <v>66.5121164321834</v>
@@ -4723,52 +4723,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877106</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877106</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W7" t="n">
-        <v>433.5218823578557</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X7" t="n">
-        <v>433.5218823578557</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.7293032143256</v>
+        <v>377.0996507379416</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3289.325488940187</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3289.325488940187</v>
       </c>
       <c r="U8" t="n">
-        <v>3050.17579632305</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V8" t="n">
-        <v>2719.112908979479</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.344253709365</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2331.266366609373</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4893,7 +4893,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>417.6040489720648</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C10" t="n">
-        <v>417.6040489720648</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>267.487409559729</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>267.487409559729</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>267.487409559729</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>267.487409559729</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>121.2702227775868</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>417.6040489720648</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>417.6040489720648</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W10" t="n">
-        <v>417.6040489720648</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X10" t="n">
-        <v>417.6040489720648</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.6040489720648</v>
+        <v>545.1671681726692</v>
       </c>
     </row>
     <row r="11">
@@ -5027,34 +5027,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832228</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782941</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179773</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570816</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2380.852671620012</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.997837274916</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T13" t="n">
-        <v>1978.396372297858</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>2157.887856924457</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1903.20336871857</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1613.786198681609</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134625</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.297989183966</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2333.297989183966</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.222762528164</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,16 +5753,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2419.37169470969</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2199.770229732631</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1910.695003076829</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1656.010514870942</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W22" t="n">
-        <v>1366.593344833982</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X22" t="n">
-        <v>1138.603793935964</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5969,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6002,10 +6002,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D31" t="n">
         <v>656.9646031150021</v>
@@ -6649,19 +6649,19 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6871,7 +6871,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,22 +6962,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7102,16 +7102,16 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,16 +7120,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7606,7 +7606,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -22550,16 +22550,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>234.2939374761845</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>108.8008122660932</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22714,16 +22714,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.0411257215884</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>9.905671546542715</v>
       </c>
       <c r="U4" t="n">
-        <v>76.56856047598193</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>104.9133501656838</v>
       </c>
     </row>
     <row r="5">
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9259388694772355</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>114.158440889167</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>134.8730892594351</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4.506629716718351</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.7108110197799</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>109.4223302771042</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1306073.214664306</v>
+        <v>1306073.214664305</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1306073.214664305</v>
+        <v>1306073.214664306</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045148</v>
+        <v>99467.00901045147</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26341,13 +26341,13 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="O2" t="n">
         <v>123156.2654796425</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020594</v>
+        <v>3456.426522020533</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687969</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997316</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.4992699732</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997318</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997314</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1340668.103800555</v>
+        <v>-1341062.924741708</v>
       </c>
       <c r="C6" t="n">
-        <v>-78374.41918580336</v>
+        <v>-78374.41918580339</v>
       </c>
       <c r="D6" t="n">
-        <v>-78374.41918580337</v>
+        <v>-78374.41918580334</v>
       </c>
       <c r="E6" t="n">
-        <v>-320899.6416846415</v>
+        <v>-320934.3796100767</v>
       </c>
       <c r="F6" t="n">
-        <v>4512.82012271414</v>
+        <v>4478.082197278447</v>
       </c>
       <c r="G6" t="n">
-        <v>4512.820122714125</v>
+        <v>4478.082197278418</v>
       </c>
       <c r="H6" t="n">
-        <v>4512.820122714096</v>
+        <v>4478.082197278447</v>
       </c>
       <c r="I6" t="n">
-        <v>4512.820122714111</v>
+        <v>4478.082197278432</v>
       </c>
       <c r="J6" t="n">
-        <v>-213018.3822745633</v>
+        <v>-213053.1201999991</v>
       </c>
       <c r="K6" t="n">
-        <v>-22863.06763787786</v>
+        <v>-22863.06763787798</v>
       </c>
       <c r="L6" t="n">
-        <v>-3435.349644246089</v>
+        <v>-3435.349644246162</v>
       </c>
       <c r="M6" t="n">
-        <v>-88490.37757975789</v>
+        <v>-88490.37757975791</v>
       </c>
       <c r="N6" t="n">
-        <v>-3435.349644246046</v>
+        <v>-3435.349644245958</v>
       </c>
       <c r="O6" t="n">
-        <v>-3435.349644245973</v>
+        <v>-3435.349644246016</v>
       </c>
       <c r="P6" t="n">
-        <v>-22863.06763787777</v>
+        <v>-22863.06763787782</v>
       </c>
     </row>
   </sheetData>
@@ -26704,10 +26704,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203975</v>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>209.6432777296265</v>
       </c>
       <c r="U4" t="n">
-        <v>209.6432777296309</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>346.3869398507604</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>258.2608625746002</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>8.380635154139611</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.58047538703471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>73.27023244588202</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>182.2374170652638</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>42.14189512788874</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>132.8338522886472</v>
       </c>
     </row>
     <row r="11">
@@ -28099,13 +28099,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>489.3502824033309</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,25 +32552,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>514.695376254093</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,10 +34126,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295172</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>347.2162484813126</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>372.0991318096486</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
